--- a/init-data/hzero-scheduler/hzero_scheduler/hzero-scheduler.xlsx
+++ b/init-data/hzero-scheduler/hzero_scheduler/hzero-scheduler.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="165">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2016,7 +2016,10 @@
     <t>#executor_code</t>
   </si>
   <si>
-    <t>executor_name</t>
+    <t>executor_name:zh_CN</t>
+  </si>
+  <si>
+    <t>executor_name:en_US</t>
   </si>
   <si>
     <t>order_seq</t>
@@ -2031,7 +2034,10 @@
     <t>status</t>
   </si>
   <si>
-    <t>tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>server_name</t>
@@ -2091,7 +2097,7 @@
     <t>#description</t>
   </si>
   <si>
-    <t>#job_param</t>
+    <t>job_param</t>
   </si>
   <si>
     <t>#alarm_email</t>
@@ -2178,7 +2184,10 @@
     <t>#executable_code</t>
   </si>
   <si>
-    <t>executable_name</t>
+    <t>executable_name:zh_CN</t>
+  </si>
+  <si>
+    <t>executable_name:en_US</t>
   </si>
   <si>
     <t>executable_desc</t>
@@ -2205,6 +2214,12 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
     <t>hsdr_conc_executable-8</t>
   </si>
   <si>
@@ -2229,7 +2244,10 @@
     <t>#conc_code</t>
   </si>
   <si>
-    <t>conc_name</t>
+    <t>conc_name:zh_CN</t>
+  </si>
+  <si>
+    <t>conc_name:en_US</t>
   </si>
   <si>
     <t>conc_description</t>
@@ -2330,7 +2348,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="85">
+  <fonts count="86">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2706,11 +2724,36 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -2721,32 +2764,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2922,7 +2945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3056,6 +3079,7 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3641,7 +3665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3712,57 +3736,75 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
         <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3811,114 +3853,114 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s" s="63">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s" s="64">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="65">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="66">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="67">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="68">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s" s="69">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="70">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="71">
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" t="s" s="72">
+      <c r="K7" t="s" s="69">
         <v>84</v>
       </c>
-      <c r="N7" t="s" s="73">
+      <c r="L7" t="s" s="70">
         <v>85</v>
       </c>
-      <c r="O7" t="s" s="74">
+      <c r="M7" t="s" s="71">
         <v>86</v>
       </c>
-      <c r="P7" t="s" s="75">
+      <c r="N7" t="s" s="72">
         <v>87</v>
       </c>
-      <c r="Q7" t="s" s="76">
+      <c r="O7" t="s" s="73">
         <v>88</v>
       </c>
-      <c r="R7" t="s" s="77">
+      <c r="P7" t="s" s="74">
         <v>89</v>
       </c>
-      <c r="S7" t="s" s="78">
+      <c r="Q7" t="s" s="75">
         <v>90</v>
       </c>
-      <c r="T7" t="s" s="79">
+      <c r="R7" t="s" s="76">
         <v>91</v>
       </c>
-      <c r="U7" t="s" s="80">
+      <c r="S7" t="s" s="77">
         <v>92</v>
       </c>
-      <c r="V7" t="s" s="81">
+      <c r="T7" t="s" s="78">
         <v>93</v>
       </c>
-      <c r="W7" t="s" s="82">
+      <c r="U7" t="s" s="79">
         <v>94</v>
       </c>
-      <c r="X7" t="s" s="83">
+      <c r="V7" t="s" s="80">
         <v>95</v>
+      </c>
+      <c r="W7" t="s" s="81">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s" s="82">
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <f>执行器!$E$8</f>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +3970,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3967,84 +4009,96 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s" s="84">
-        <v>107</v>
-      </c>
-      <c r="E7" t="s" s="85">
         <v>108</v>
       </c>
-      <c r="F7" t="s" s="86">
+      <c r="D7" t="s" s="83">
         <v>109</v>
       </c>
+      <c r="E7" t="s" s="84">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s" s="85">
+        <v>111</v>
+      </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" t="s" s="87">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s">
         <v>113</v>
       </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s" s="86">
+        <v>115</v>
+      </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" t="s" s="88">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="P7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" t="s" s="87">
+        <v>122</v>
+      </c>
+      <c r="R7" t="s" s="88">
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8">
         <f>执行器!$E$8</f>
       </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="M8" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>126</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4093,57 +4147,69 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s" s="89">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s" s="90">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s" s="91">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s" s="92">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s" s="93">
         <v>122</v>
       </c>
-      <c r="D7" t="s" s="89">
+      <c r="N7" t="s" s="94">
         <v>123</v>
-      </c>
-      <c r="E7" t="s" s="90">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s" s="91">
-        <v>125</v>
-      </c>
-      <c r="G7" t="s" s="92">
-        <v>126</v>
-      </c>
-      <c r="H7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" t="s" s="93">
-        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <f>并发可执行!$E$8</f>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>126</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -4154,163 +4220,163 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" t="s" s="94">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s" s="95">
-        <v>133</v>
-      </c>
-      <c r="F10" t="s" s="96">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="D10" t="s" s="95">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s" s="96">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s" s="97">
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s" s="97">
-        <v>135</v>
+        <v>58</v>
+      </c>
+      <c r="H10" t="s" s="98">
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" t="s" s="98">
-        <v>90</v>
+        <v>149</v>
+      </c>
+      <c r="Q10" t="s" s="99">
+        <v>92</v>
       </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <f>并发程序!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F12">
         <f>并发程序!$E$8</f>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <f>并发程序!$E$8</f>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
